--- a/summary.xlsx
+++ b/summary.xlsx
@@ -3,6 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856"/>
+  </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
@@ -11,12 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>org</t>
-  </si>
-  <si>
-    <t>hack</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Entry Email</t>
+  </si>
+  <si>
+    <t>Organiser</t>
+  </si>
+  <si>
+    <t>Event Name</t>
+  </si>
+  <si>
+    <t>Event Date</t>
+  </si>
+  <si>
+    <t>Number of attendees</t>
+  </si>
+  <si>
+    <t>Report id</t>
+  </si>
+  <si>
+    <t>Entry Date</t>
+  </si>
+  <si>
+    <t>team3@muj.manipal.edu</t>
+  </si>
+  <si>
+    <t>team3</t>
+  </si>
+  <si>
+    <t>hackathon</t>
   </si>
   <si>
     <t>2023-01-19</t>
@@ -25,7 +52,7 @@
     <t>100</t>
   </si>
   <si>
-    <t>1674186032679.pdf</t>
+    <t>1674187078902.pdf</t>
   </si>
 </sst>
 </file>
@@ -61,8 +88,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -403,32 +436,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" ht="27.6" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
-        <v>44946.15315601852</v>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44946.165265081014</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>Entry Email</t>
   </si>
@@ -53,6 +53,81 @@
   </si>
   <si>
     <t>1674187078902.pdf</t>
+  </si>
+  <si>
+    <t>team3@muj.com</t>
+  </si>
+  <si>
+    <t>AIML</t>
+  </si>
+  <si>
+    <t>T-HUNT</t>
+  </si>
+  <si>
+    <t>1674190329633.pdf</t>
+  </si>
+  <si>
+    <t>eeya@muj.com</t>
+  </si>
+  <si>
+    <t>aiml</t>
+  </si>
+  <si>
+    <t>1674190565590.pdf</t>
+  </si>
+  <si>
+    <t>1674190709288.pdf</t>
+  </si>
+  <si>
+    <t>1674190746552.pdf</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>1674190853529.pdf</t>
+  </si>
+  <si>
+    <t>a@b</t>
+  </si>
+  <si>
+    <t>2033-03-10</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1674190917456.pdf</t>
+  </si>
+  <si>
+    <t>username@mail.cpom</t>
+  </si>
+  <si>
+    <t>ajjbs</t>
+  </si>
+  <si>
+    <t>fbnfk</t>
+  </si>
+  <si>
+    <t>2023-11-23</t>
+  </si>
+  <si>
+    <t>10284</t>
+  </si>
+  <si>
+    <t>http://localhost:{port}1674191084317.pdf</t>
+  </si>
+  <si>
+    <t>http://localhost:{port}1674191126635.pdf</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/1674191176746.pdf</t>
   </si>
 </sst>
 </file>
@@ -436,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="F13" sqref="F13"/>
@@ -507,6 +582,201 @@
         <v>44946.165265081014</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44946.202889293985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3">
+        <v>44946.20562025463</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3">
+        <v>44946.2072834375</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3">
+        <v>44946.2077147338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44946.20895288195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3">
+        <v>44946.209692777775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="3">
+        <v>44946.21162405093</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3">
+        <v>44946.212113842594</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="3">
+        <v>44946.21269381944</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Entry Email</t>
   </si>
@@ -128,6 +128,21 @@
   </si>
   <si>
     <t>http://localhost:3000/1674191176746.pdf</t>
+  </si>
+  <si>
+    <t>muj</t>
+  </si>
+  <si>
+    <t>T-hunt</t>
+  </si>
+  <si>
+    <t>2023-01-03</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/1674191387096.pdf</t>
   </si>
 </sst>
 </file>
@@ -511,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="F13" sqref="F13"/>
@@ -777,6 +792,29 @@
         <v>44946.21269381944</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="3">
+        <v>44946.215128449076</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>Entry Email</t>
   </si>
@@ -143,6 +143,21 @@
   </si>
   <si>
     <t>http://localhost:3000/1674191387096.pdf</t>
+  </si>
+  <si>
+    <t>shikhar@team3</t>
+  </si>
+  <si>
+    <t>Muj</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/1674193791837.pdf</t>
   </si>
 </sst>
 </file>
@@ -526,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="F13" sqref="F13"/>
@@ -815,6 +830,29 @@
         <v>44946.215128449076</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="3">
+        <v>44946.24296109954</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>Entry Email</t>
   </si>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t>http://localhost:3000/1674193791837.pdf</t>
+  </si>
+  <si>
+    <t>Department of Computer Science</t>
+  </si>
+  <si>
+    <t>Hackathon</t>
+  </si>
+  <si>
+    <t>2023-02-19</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/1674195257587.pdf</t>
   </si>
 </sst>
 </file>
@@ -541,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="F13" sqref="F13"/>
@@ -853,6 +865,29 @@
         <v>44946.24296109954</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3">
+        <v>44946.25992578704</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
